--- a/data/teaching-experience_es.xlsx
+++ b/data/teaching-experience_es.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0626F94E-CCC8-4576-BEDD-F508B12A1010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9291AC92-F69A-4714-8F9B-B0E345DA7BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10260" yWindow="1515" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,27 +37,15 @@
     <t>why</t>
   </si>
   <si>
-    <t>Universidad El Bosque</t>
-  </si>
-  <si>
-    <t>Universidad de La Sabana</t>
-  </si>
-  <si>
     <t>Chia, Colombia</t>
   </si>
   <si>
-    <t>University of Stirling</t>
-  </si>
-  <si>
     <t>2015 - 2016</t>
   </si>
   <si>
     <t>2012-2014</t>
   </si>
   <si>
-    <t>Universidad Pedagógica Nacional</t>
-  </si>
-  <si>
     <t>Profesor Asociado</t>
   </si>
   <si>
@@ -116,6 +104,18 @@
   </si>
   <si>
     <t>Laboratorio de investigación II</t>
+  </si>
+  <si>
+    <t>\href{https://www.unbosque.edu.co/}{Universidad El Bosque}</t>
+  </si>
+  <si>
+    <t>\href{https://www.unisabana.edu.co/}{Universidad de La Sabana}</t>
+  </si>
+  <si>
+    <t>\href{https://www.stir.ac.uk/}{University of Stirling}</t>
+  </si>
+  <si>
+    <t>\href{https://www.upn.edu.co/}{Universidad Pedagógica Nacional}</t>
   </si>
 </sst>
 </file>
@@ -605,10 +605,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -933,7 +934,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,184 +947,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2017</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2015</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2016</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>2012</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B13">
+        <v>2010</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2" t="s">
+      <c r="E13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="2" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/teaching-experience_es.xlsx
+++ b/data/teaching-experience_es.xlsx
@@ -3,24 +3,35 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9291AC92-F69A-4714-8F9B-B0E345DA7BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624C8D82-D8AF-4B59-9A94-1D8A01DB0A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="1515" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>what</t>
   </si>
@@ -43,9 +54,6 @@
     <t>2015 - 2016</t>
   </si>
   <si>
-    <t>2012-2014</t>
-  </si>
-  <si>
     <t>Profesor Asociado</t>
   </si>
   <si>
@@ -67,45 +75,6 @@
     <t>Bogotá, Colombia</t>
   </si>
   <si>
-    <t>2017-2018</t>
-  </si>
-  <si>
-    <t>Métodos cuantitativos II (Maestría en Psicología)</t>
-  </si>
-  <si>
-    <t>Métodos cuantitativos I (Maestría en Psicología)</t>
-  </si>
-  <si>
-    <t>Taller Proyecto de Grado I</t>
-  </si>
-  <si>
-    <t>Fuentes y estilos de documentación en psicología</t>
-  </si>
-  <si>
-    <t>Evolución y desarrollo de la comunicación vocal: canciones, moda y lenguaje</t>
-  </si>
-  <si>
-    <t>Estadística inferencial</t>
-  </si>
-  <si>
-    <t>Estadística descriptiva</t>
-  </si>
-  <si>
-    <t>Comportamiento animal (cátedra de comunicación vocal)</t>
-  </si>
-  <si>
-    <t>Métodos cuantitativos (Maestría en psicología: varias conferencias, supervisión práctica, enseñanza individualizada)</t>
-  </si>
-  <si>
-    <t>Módulo de Cognición (liderando proyectos de investigación en psicoacústica)</t>
-  </si>
-  <si>
-    <t>Proyecto de investigación I</t>
-  </si>
-  <si>
-    <t>Laboratorio de investigación II</t>
-  </si>
-  <si>
     <t>\href{https://www.unbosque.edu.co/}{Universidad El Bosque}</t>
   </si>
   <si>
@@ -116,6 +85,51 @@
   </si>
   <si>
     <t>\href{https://www.upn.edu.co/}{Universidad Pedagógica Nacional}</t>
+  </si>
+  <si>
+    <t>Métodos cuantitativos II (Maestría en Psicología) (2019)</t>
+  </si>
+  <si>
+    <t>Métodos cuantitativos II (Maestría en Psicología) (2017-2018)</t>
+  </si>
+  <si>
+    <t>Métodos cuantitativos I (Maestría en Psicología) (2017)</t>
+  </si>
+  <si>
+    <t>Taller Proyecto de Grado I (2018)</t>
+  </si>
+  <si>
+    <t>Fuentes y estilos de documentación en psicología (2015)</t>
+  </si>
+  <si>
+    <t>Evolución y desarrollo de la comunicación vocal: canciones, moda y lenguaje (2016)</t>
+  </si>
+  <si>
+    <t>Estadística inferencial (2015 - 2016)</t>
+  </si>
+  <si>
+    <t>Estadística descriptiva (2015 - 2016)</t>
+  </si>
+  <si>
+    <t>Comportamiento animal (cátedra de comunicación vocal) (2012)</t>
+  </si>
+  <si>
+    <t>Métodos cuantitativos (Maestría en psicología: varias conferencias, supervisión práctica, enseñanza individualizada) (2012-2014)</t>
+  </si>
+  <si>
+    <t>Módulo de Cognición (liderando proyectos de investigación en psicoacústica) (2012-2014)</t>
+  </si>
+  <si>
+    <t>Proyecto de investigación I (2010)</t>
+  </si>
+  <si>
+    <t>Laboratorio de investigación II (2010)</t>
+  </si>
+  <si>
+    <t>2012 - 2014</t>
+  </si>
+  <si>
+    <t>2015 - 2018</t>
   </si>
 </sst>
 </file>
@@ -605,10 +619,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -931,183 +948,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="85.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="117" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>2019</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2017</v>
-      </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2018</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>2015</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>2016</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>2012</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>2010</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/data/teaching-experience_es.xlsx
+++ b/data/teaching-experience_es.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624C8D82-D8AF-4B59-9A94-1D8A01DB0A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7ABA01-7613-4388-8534-DCDB904C24F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Profesor Catedrático</t>
   </si>
   <si>
-    <t>Adistente de Enseñanza</t>
-  </si>
-  <si>
     <t>Profesor Auxiliar</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>2015 - 2018</t>
+  </si>
+  <si>
+    <t>Profesor Homologado de Psicología</t>
   </si>
 </sst>
 </file>
@@ -951,7 +951,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,13 +988,13 @@
         <v>2019</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1002,16 +1002,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1020,7 +1020,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1049,13 +1049,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1073,24 +1073,24 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1099,7 +1099,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1108,24 +1108,24 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>2010</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
